--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3466.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3466.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.224116004987273</v>
+        <v>1.015347361564636</v>
       </c>
       <c r="B1">
-        <v>1.43763942259556</v>
+        <v>1.643430590629578</v>
       </c>
       <c r="C1">
-        <v>1.855424753466278</v>
+        <v>5.102684497833252</v>
       </c>
       <c r="D1">
-        <v>4.175592938550341</v>
+        <v>1.581733584403992</v>
       </c>
       <c r="E1">
-        <v>7.269051223976912</v>
+        <v>0.3055053353309631</v>
       </c>
     </row>
   </sheetData>
